--- a/Documents/src/Déscription des Use Case Utilisateur.xlsx
+++ b/Documents/src/Déscription des Use Case Utilisateur.xlsx
@@ -4,24 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="11400" windowHeight="5535" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="11400" windowHeight="5535"/>
   </bookViews>
   <sheets>
     <sheet name="Accueil" sheetId="5" r:id="rId1"/>
-    <sheet name="Agenda" sheetId="1" r:id="rId2"/>
-    <sheet name="Signaler" sheetId="2" r:id="rId3"/>
-    <sheet name="Annuaire" sheetId="3" r:id="rId4"/>
-    <sheet name="Plan" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
-  <si>
-    <t>Use Case</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Accès à l'agenda</t>
   </si>
@@ -35,9 +28,6 @@
     <t>Accès au plan</t>
   </si>
   <si>
-    <t>suivre sur les reseaux sociaux</t>
-  </si>
-  <si>
     <t>retour à l'accueil</t>
   </si>
   <si>
@@ -50,12 +40,6 @@
     <t>recherche par catégorie</t>
   </si>
   <si>
-    <t>consulter les evenements</t>
-  </si>
-  <si>
-    <t>accéder au detail des événements</t>
-  </si>
-  <si>
     <t>consulter la carte des événements</t>
   </si>
   <si>
@@ -77,9 +61,6 @@
     <t>accéder à Google Maps</t>
   </si>
   <si>
-    <t>accéder au detail des infos recherchés</t>
-  </si>
-  <si>
     <t>visualiser le plan</t>
   </si>
   <si>
@@ -89,9 +70,6 @@
     <t>filtrer par association</t>
   </si>
   <si>
-    <t>filtrer par batiment</t>
-  </si>
-  <si>
     <t>filtrer par zone</t>
   </si>
   <si>
@@ -104,9 +82,6 @@
     <t>choisir le type de recherche</t>
   </si>
   <si>
-    <t>Déscription</t>
-  </si>
-  <si>
     <t>Données à persister</t>
   </si>
   <si>
@@ -131,15 +106,9 @@
     <t>l'utilisateur regarde la liste des événements présents, soit la liste de tous les événements (par défaut lors de l'accès à la page agenda), soit la liste des événements recherchés.</t>
   </si>
   <si>
-    <t>l'utilisateur clique sur un lien pour retourner à l'ecran d'accueil.</t>
-  </si>
-  <si>
     <t>l'utilisateur clique sur une date du calendrier pour lancer une recherche des événements à la date spécifié.</t>
   </si>
   <si>
-    <t>l'utilisateur clique sur un événement pour accéder aux details de cette événement</t>
-  </si>
-  <si>
     <t>l'utilisateur consulte les événements sur la carte pour connaitre leur localisation</t>
   </si>
   <si>
@@ -161,31 +130,100 @@
     <t>l'utilisateur clique sur le bouton envoyer pour envoyer les données</t>
   </si>
   <si>
-    <t>l'utilisateur choisi parmis une liste le type de batiment avec lesquels il souhaite entrer en contact</t>
-  </si>
-  <si>
-    <t>en cliquant sur un lien de la recherche il accéde au information concernant le batiment (nom, téléphone, mail, etc…) et à la carte localisation du batiment sur la carte.</t>
-  </si>
-  <si>
-    <t>en cliquant sur le bouton en savoir plus on accéde directement à Google Maps en se centrant sur l'adresse du batiment demandé</t>
-  </si>
-  <si>
-    <t>en cliquant sur le bouton detail on accéde aux détails concernant le batiment demandé</t>
-  </si>
-  <si>
     <t>l'utilisateur peut visualiser directement sur le point les "points d'intérêts" correspondant à sa recherche, zoomer sur le plan et déplacer le centre de la carte</t>
   </si>
   <si>
-    <t>l'utilisateur peut filtrer les données du plan en choisissant parmis des mots clé</t>
-  </si>
-  <si>
-    <t>l'utilisateur peut filtrer les données du plan en choisissant parmis des associations</t>
-  </si>
-  <si>
-    <t>l'utilisateur peut filtrer les données du plan en choisissant parmis des batiments</t>
-  </si>
-  <si>
-    <t>l'utilisateur peut filtrer les données du plan en choisissant parmis une zone</t>
+    <t>Use Case Accueil</t>
+  </si>
+  <si>
+    <t>Use Case Agenda</t>
+  </si>
+  <si>
+    <t>Accès aux urgences</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur un lien pour accéder à la page Urgences</t>
+  </si>
+  <si>
+    <t>Use Case Signaler</t>
+  </si>
+  <si>
+    <t>Use Case Annuaire</t>
+  </si>
+  <si>
+    <t>Use Case Plan</t>
+  </si>
+  <si>
+    <t>Use Case Urgences</t>
+  </si>
+  <si>
+    <t>choisir une type d'urgence</t>
+  </si>
+  <si>
+    <t>ajouter les infos d'urgence</t>
+  </si>
+  <si>
+    <t>l'utilisateur choisi un type d'urgence auquel il souhaite accéder</t>
+  </si>
+  <si>
+    <t>l'utilisateur ajoute les infos minimum(nom, prénom, message, etc…)</t>
+  </si>
+  <si>
+    <t>ajouter une description de l'urgence</t>
+  </si>
+  <si>
+    <t>envoyer un requête</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>suivre sur les réseaux sociaux</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur un lien pour retourner à l'écran d'accueil.</t>
+  </si>
+  <si>
+    <t>consulter les évènements</t>
+  </si>
+  <si>
+    <t>accéder au détail des événements</t>
+  </si>
+  <si>
+    <t>l'utilisateur clique sur un événement pour accéder aux détails de cette événement</t>
+  </si>
+  <si>
+    <t>l'utilisateur choisi parmi une liste le type de bâtiment avec lesquels il souhaite entrer en contact</t>
+  </si>
+  <si>
+    <t>en cliquant sur un lien de la recherche il accède au information concernant le bâtiment (nom, téléphone, mail, etc…) et à la carte localisation du bâtiment sur la carte.</t>
+  </si>
+  <si>
+    <t>en cliquant sur le bouton en savoir plus on accède directement à Google Maps en se centrant sur l'adresse du bâtiment demandé</t>
+  </si>
+  <si>
+    <t>accéder au détail des infos recherchés</t>
+  </si>
+  <si>
+    <t>en cliquant sur le bouton détail on accède aux détails concernant le bâtiment demandé</t>
+  </si>
+  <si>
+    <t>l'utilisateur peut filtrer les données du plan en choisissant parmi des mots clé</t>
+  </si>
+  <si>
+    <t>l'utilisateur peut filtrer les données du plan en choisissant parmi des associations</t>
+  </si>
+  <si>
+    <t>filtrer par bâtiment</t>
+  </si>
+  <si>
+    <t>l'utilisateur peut filtrer les données du plan en choisissant parmi des bâtiments</t>
+  </si>
+  <si>
+    <t>l'utilisateur peut filtrer les données du plan en choisissant parmi une zone</t>
+  </si>
+  <si>
+    <t>l'utilisateur peut ajouter une description de l'urgence</t>
   </si>
 </sst>
 </file>
@@ -229,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -414,11 +452,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +554,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,428 +947,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5703125" style="17" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69" style="17" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="18" max="16383" man="1"/>
+    <brk id="33" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>